--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,27 +7,28 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +487,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>市场</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>时间</t>
         </is>
@@ -508,26 +514,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2123</v>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603322</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>37.23</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+        <v>-17.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-110000</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-12 09:31</t>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
         </is>
       </c>
     </row>
@@ -544,710 +555,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2657</v>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000938</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>31.44</v>
+        <v>24.91</v>
       </c>
       <c r="F3" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+        <v>18.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>169800</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-12 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>601996</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>601616</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>603903</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浩物股份</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>001211</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>002836</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>600865</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
         </is>
       </c>
     </row>
@@ -1320,7 +652,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1332,10 +664,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1344,7 +676,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -1359,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,27 +744,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1441,43 +773,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -1550,7 +846,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1562,10 +858,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1574,7 +870,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1591,17 +887,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1610,7 +906,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1620,6 +916,139 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1716,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3829,7 +3258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3918,139 +3347,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -4118,41 +3414,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4162,17 +3460,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4181,7 +3479,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -4196,7 +3494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4254,7 +3552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4266,10 +3564,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4277,7 +3575,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4349,22 +3683,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4372,7 +3706,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -4381,6 +3715,787 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>601616</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>603903</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>757</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>603808</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>548</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600796</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>600865</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4439,7 +4554,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4449,27 +4564,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603322</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>38.81</v>
+        <v>4.06</v>
       </c>
       <c r="F2" t="n">
-        <v>18.72</v>
+        <v>58.04</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4606,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4772,17 +4885,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4791,7 +4904,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4977,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4876,10 +4989,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4888,7 +5001,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -4898,6 +5011,103 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5678,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6207,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6368,103 +6578,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -6537,22 +6650,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6561,7 +6674,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,28 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +505,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,22 +515,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603322</t>
+          <t>000548</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>37.23</v>
+        <v>5.68</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.75</v>
+        <v>-2.01</v>
       </c>
       <c r="G2" t="n">
-        <v>-110000</v>
+        <v>-76200</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -538,39 +539,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:31</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>紫光股份</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000938</t>
+          <t>601616</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.91</v>
+        <v>3.94</v>
       </c>
       <c r="F3" t="n">
-        <v>18.32</v>
+        <v>-0.77</v>
       </c>
       <c r="G3" t="n">
-        <v>169800</v>
+        <v>-42200</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -579,7 +580,704 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:31</t>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002963</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31300</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600526</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80900</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002748</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-42600</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>园林股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>605303</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33700</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002763</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25800</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601996</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-185600</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>002817</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52100</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>600796</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-47600</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>扬州金泉</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>603307</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>002679</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30700</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>603137</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24700</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>600865</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-31700</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>002999</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申华控股</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>600653</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>002442</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9600</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>栖霞建设</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>600533</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-155600</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>601827</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-43000</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -652,22 +1350,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -676,7 +1374,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -749,7 +1447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -761,10 +1459,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -773,7 +1471,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -788,7 +1486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,27 +1539,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -870,43 +1568,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -979,7 +1641,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -991,10 +1653,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1003,7 +1665,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1682,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1039,7 +1701,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1049,6 +1711,139 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1145,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3258,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3347,139 +4142,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3547,41 +4209,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3591,17 +4255,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3610,7 +4274,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3625,7 +4289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3683,7 +4347,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3695,10 +4359,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3706,7 +4370,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +4420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3761,10 +4461,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>市场</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>时间</t>
         </is>
@@ -3783,26 +4488,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>37.23</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+        <v>-17.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-110000</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-12 09:31</t>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
         </is>
       </c>
     </row>
@@ -3819,674 +4527,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科金财</t>
+          <t>紫光股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2657</v>
+        <v>938</v>
       </c>
       <c r="E3" t="n">
-        <v>31.44</v>
+        <v>24.91</v>
       </c>
       <c r="F3" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
+        <v>18.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>169800</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-12 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>601996</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2790</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>603172</v>
-      </c>
-      <c r="E6" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>601616</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>603903</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浩物股份</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>757</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>603808</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1211</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>548</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1366</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>600796</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>600865</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
         </is>
       </c>
     </row>
@@ -4559,22 +4622,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4582,7 +4645,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -4591,6 +4654,101 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4719,7 +4877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4822,7 +4980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4880,22 +5038,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603322</v>
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>38.81</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>18.72</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4904,7 +5062,691 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:31</t>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>601616</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>603903</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>757</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>603808</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>548</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600796</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>600865</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
         </is>
       </c>
     </row>
@@ -4982,17 +5824,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5001,7 +5843,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5916,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5086,10 +5928,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5098,7 +5940,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -5108,6 +5950,103 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5888,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6417,7 +7356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6584,101 +7523,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,33 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,27 +488,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>盈亏比例%</t>
+          <t>新比例%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
         </is>
       </c>
     </row>
@@ -524,36 +515,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000952</t>
-        </is>
-      </c>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.98</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>化学制药</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -570,2152 +549,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600051</t>
-        </is>
-      </c>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002228</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002442</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>002451</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>002748</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>300837</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>300838</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>300929</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>301353</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>301359</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>301429</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>301519</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>688367</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>688420</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>000952</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>600051</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>002228</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>002442</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>002451</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>002748</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>300837</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>300838</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>300929</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>301353</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>301359</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>301429</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>301519</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>688367</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>688420</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>专用设备</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -2788,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2796,16 +647,14 @@
           <t>梦网科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2814,7 +663,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -2824,6 +673,103 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2895,10 +841,8 @@
           <t>美芝股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002856</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2856</v>
       </c>
       <c r="E2" t="n">
         <v>11.95</v>
@@ -2933,10 +877,8 @@
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
+      <c r="D3" t="n">
+        <v>600493</v>
       </c>
       <c r="E3" t="n">
         <v>6.74</v>
@@ -2971,10 +913,8 @@
           <t>一彬科技</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1278</v>
       </c>
       <c r="E4" t="n">
         <v>18.12</v>
@@ -3009,10 +949,8 @@
           <t>德联集团</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2666</v>
       </c>
       <c r="E5" t="n">
         <v>5.15</v>
@@ -3047,10 +985,8 @@
           <t>德龙汇能</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
+      <c r="D6" t="n">
+        <v>593</v>
       </c>
       <c r="E6" t="n">
         <v>6.58</v>
@@ -3085,10 +1021,8 @@
           <t>春雪食品</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605567</t>
-        </is>
+      <c r="D7" t="n">
+        <v>605567</v>
       </c>
       <c r="E7" t="n">
         <v>11.03</v>
@@ -3123,10 +1057,8 @@
           <t>百达精工</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>603331</t>
-        </is>
+      <c r="D8" t="n">
+        <v>603331</v>
       </c>
       <c r="E8" t="n">
         <v>10.74</v>
@@ -3161,10 +1093,8 @@
           <t>惠达卫浴</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603385</t>
-        </is>
+      <c r="D9" t="n">
+        <v>603385</v>
       </c>
       <c r="E9" t="n">
         <v>7.15</v>
@@ -3199,10 +1129,8 @@
           <t>金鹰股份</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>600232</t>
-        </is>
+      <c r="D10" t="n">
+        <v>600232</v>
       </c>
       <c r="E10" t="n">
         <v>6.45</v>
@@ -3237,10 +1165,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2790</v>
       </c>
       <c r="E11" t="n">
         <v>7.63</v>
@@ -3275,10 +1201,8 @@
           <t>双箭股份</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
+      <c r="D12" t="n">
+        <v>2381</v>
       </c>
       <c r="E12" t="n">
         <v>7.03</v>
@@ -3313,10 +1237,8 @@
           <t>中重科技</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>603135</t>
-        </is>
+      <c r="D13" t="n">
+        <v>603135</v>
       </c>
       <c r="E13" t="n">
         <v>10.15</v>
@@ -3351,10 +1273,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="D14" t="n">
+        <v>600159</v>
       </c>
       <c r="E14" t="n">
         <v>2.92</v>
@@ -3389,10 +1309,8 @@
           <t>林海股份</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>600099</t>
-        </is>
+      <c r="D15" t="n">
+        <v>600099</v>
       </c>
       <c r="E15" t="n">
         <v>11.39</v>
@@ -3427,10 +1345,8 @@
           <t>恒尚节能</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
+      <c r="D16" t="n">
+        <v>603137</v>
       </c>
       <c r="E16" t="n">
         <v>14.82</v>
@@ -3465,10 +1381,8 @@
           <t>曙光股份</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>600303</t>
-        </is>
+      <c r="D17" t="n">
+        <v>600303</v>
       </c>
       <c r="E17" t="n">
         <v>3.71</v>
@@ -3503,10 +1417,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2817</v>
       </c>
       <c r="E18" t="n">
         <v>8.02</v>
@@ -3541,10 +1453,8 @@
           <t>福建金森</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2679</v>
       </c>
       <c r="E19" t="n">
         <v>10.11</v>
@@ -3579,10 +1489,8 @@
           <t>三柏硕</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1300</v>
       </c>
       <c r="E20" t="n">
         <v>13.17</v>
@@ -3617,10 +1525,8 @@
           <t>友好集团</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>600778</t>
-        </is>
+      <c r="D21" t="n">
+        <v>600778</v>
       </c>
       <c r="E21" t="n">
         <v>6.71</v>
@@ -3644,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3716,10 +1622,8 @@
           <t>银座股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600858</t>
-        </is>
+      <c r="D2" t="n">
+        <v>600858</v>
       </c>
       <c r="E2" t="n">
         <v>5.74</v>
@@ -3754,10 +1658,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2790</v>
       </c>
       <c r="E3" t="n">
         <v>7.61</v>
@@ -3792,10 +1694,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="D4" t="n">
+        <v>600159</v>
       </c>
       <c r="E4" t="n">
         <v>2.87</v>
@@ -3830,10 +1730,8 @@
           <t>三柏硕</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1300</v>
       </c>
       <c r="E5" t="n">
         <v>13.24</v>
@@ -3868,10 +1766,8 @@
           <t>美芝股份</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002856</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2856</v>
       </c>
       <c r="E6" t="n">
         <v>11.8</v>
@@ -3906,10 +1802,8 @@
           <t>惠达卫浴</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603385</t>
-        </is>
+      <c r="D7" t="n">
+        <v>603385</v>
       </c>
       <c r="E7" t="n">
         <v>7.09</v>
@@ -3944,10 +1838,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="D8" t="n">
+        <v>603172</v>
       </c>
       <c r="E8" t="n">
         <v>16.79</v>
@@ -3982,10 +1874,8 @@
           <t>曙光股份</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600303</t>
-        </is>
+      <c r="D9" t="n">
+        <v>600303</v>
       </c>
       <c r="E9" t="n">
         <v>3.65</v>
@@ -4020,10 +1910,8 @@
           <t>福建金森</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2679</v>
       </c>
       <c r="E10" t="n">
         <v>10.09</v>
@@ -4058,10 +1946,8 @@
           <t>德联集团</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2666</v>
       </c>
       <c r="E11" t="n">
         <v>5.1</v>
@@ -4096,10 +1982,8 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>603926</t>
-        </is>
+      <c r="D12" t="n">
+        <v>603926</v>
       </c>
       <c r="E12" t="n">
         <v>12.2</v>
@@ -4134,10 +2018,8 @@
           <t>中重科技</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>603135</t>
-        </is>
+      <c r="D13" t="n">
+        <v>603135</v>
       </c>
       <c r="E13" t="n">
         <v>10.15</v>
@@ -4172,10 +2054,8 @@
           <t>天禾股份</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>002999</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2999</v>
       </c>
       <c r="E14" t="n">
         <v>7.18</v>
@@ -4199,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4271,10 +2151,8 @@
           <t>梦网科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
         <v>14.44</v>
@@ -4309,10 +2187,8 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D3" t="n">
+        <v>785</v>
       </c>
       <c r="E3" t="n">
         <v>2.88</v>
@@ -4347,10 +2223,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D4" t="n">
+        <v>548</v>
       </c>
       <c r="E4" t="n">
         <v>5.59</v>
@@ -4366,105 +2240,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -4537,24 +2312,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4563,7 +2336,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -4636,7 +2409,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4644,16 +2417,14 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4662,7 +2433,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -4677,7 +2448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4730,29 +2501,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4761,45 +2530,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -4872,7 +2603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4880,16 +2611,14 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D2" t="n">
+        <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4898,7 +2627,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4915,19 +2644,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4936,7 +2663,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4946,6 +2673,2322 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>952</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>785</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>952</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>785</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5017,10 +5060,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
         <v>6.4</v>
@@ -5044,676 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广田集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5785,10 +5157,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D2" t="n">
+        <v>548</v>
       </c>
       <c r="E2" t="n">
         <v>5.23</v>
@@ -5823,10 +5193,8 @@
           <t>*ST亚太</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000691</t>
-        </is>
+      <c r="D3" t="n">
+        <v>691</v>
       </c>
       <c r="E3" t="n">
         <v>4.32</v>
@@ -5861,10 +5229,8 @@
           <t>和展能源</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000809</t>
-        </is>
+      <c r="D4" t="n">
+        <v>809</v>
       </c>
       <c r="E4" t="n">
         <v>3.17</v>
@@ -5899,10 +5265,8 @@
           <t>ST数源</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000909</t>
-        </is>
+      <c r="D5" t="n">
+        <v>909</v>
       </c>
       <c r="E5" t="n">
         <v>6.54</v>
@@ -5937,10 +5301,8 @@
           <t>*ST兰黄</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000929</t>
-        </is>
+      <c r="D6" t="n">
+        <v>929</v>
       </c>
       <c r="E6" t="n">
         <v>8.369999999999999</v>
@@ -5975,10 +5337,8 @@
           <t>金房能源</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1210</v>
       </c>
       <c r="E7" t="n">
         <v>13.69</v>
@@ -6013,10 +5373,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1231</v>
       </c>
       <c r="E8" t="n">
         <v>19.92</v>
@@ -6051,10 +5409,8 @@
           <t>坤泰股份</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1260</v>
       </c>
       <c r="E9" t="n">
         <v>18.18</v>
@@ -6089,10 +5445,8 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>001333</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1333</v>
       </c>
       <c r="E10" t="n">
         <v>19.88</v>
@@ -6127,10 +5481,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1336</v>
       </c>
       <c r="E11" t="n">
         <v>21.38</v>
@@ -6165,10 +5517,8 @@
           <t>南矿集团</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>001360</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1360</v>
       </c>
       <c r="E12" t="n">
         <v>13.89</v>
@@ -6203,10 +5553,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1366</v>
       </c>
       <c r="E13" t="n">
         <v>12.26</v>
@@ -6241,10 +5589,8 @@
           <t>双箭股份</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2381</v>
       </c>
       <c r="E14" t="n">
         <v>6.7</v>
@@ -6279,10 +5625,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2687</v>
       </c>
       <c r="E15" t="n">
         <v>4.6</v>
@@ -6317,10 +5661,8 @@
           <t>世龙实业</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>002748</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2748</v>
       </c>
       <c r="E16" t="n">
         <v>9.619999999999999</v>
@@ -6355,10 +5697,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2817</v>
       </c>
       <c r="E17" t="n">
         <v>7.53</v>
@@ -6393,10 +5733,8 @@
           <t>名雕股份</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002830</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2830</v>
       </c>
       <c r="E18" t="n">
         <v>14.62</v>
@@ -6431,10 +5769,8 @@
           <t>海象新材</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>003011</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3011</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -6469,10 +5805,8 @@
           <t>金富科技</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>003018</t>
-        </is>
+      <c r="D20" t="n">
+        <v>3018</v>
       </c>
       <c r="E20" t="n">
         <v>11.32</v>
@@ -6507,10 +5841,8 @@
           <t>锐奇股份</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>300126</t>
-        </is>
+      <c r="D21" t="n">
+        <v>300126</v>
       </c>
       <c r="E21" t="n">
         <v>6.92</v>
@@ -6545,10 +5877,8 @@
           <t>维尔利</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>300190</t>
-        </is>
+      <c r="D22" t="n">
+        <v>300190</v>
       </c>
       <c r="E22" t="n">
         <v>3.53</v>
@@ -6583,10 +5913,8 @@
           <t>三雄极光</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>300625</t>
-        </is>
+      <c r="D23" t="n">
+        <v>300625</v>
       </c>
       <c r="E23" t="n">
         <v>11.9</v>
@@ -6621,10 +5949,8 @@
           <t>浙江力诺</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>300838</t>
-        </is>
+      <c r="D24" t="n">
+        <v>300838</v>
       </c>
       <c r="E24" t="n">
         <v>13.99</v>
@@ -6659,10 +5985,8 @@
           <t>华骐环保</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>300929</t>
-        </is>
+      <c r="D25" t="n">
+        <v>300929</v>
       </c>
       <c r="E25" t="n">
         <v>10.04</v>
@@ -6697,10 +6021,8 @@
           <t>*ST清研</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>301288</t>
-        </is>
+      <c r="D26" t="n">
+        <v>301288</v>
       </c>
       <c r="E26" t="n">
         <v>12.78</v>
@@ -6735,10 +6057,8 @@
           <t>仁信新材</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>301395</t>
-        </is>
+      <c r="D27" t="n">
+        <v>301395</v>
       </c>
       <c r="E27" t="n">
         <v>11.01</v>
@@ -6773,10 +6093,8 @@
           <t>森泰股份</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>301429</t>
-        </is>
+      <c r="D28" t="n">
+        <v>301429</v>
       </c>
       <c r="E28" t="n">
         <v>18.17</v>
@@ -6811,10 +6129,8 @@
           <t>港通医疗</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>301515</t>
-        </is>
+      <c r="D29" t="n">
+        <v>301515</v>
       </c>
       <c r="E29" t="n">
         <v>19.91</v>
@@ -6849,10 +6165,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="D30" t="n">
+        <v>600235</v>
       </c>
       <c r="E30" t="n">
         <v>6.38</v>
@@ -6887,10 +6201,8 @@
           <t>恒丰纸业</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>600356</t>
-        </is>
+      <c r="D31" t="n">
+        <v>600356</v>
       </c>
       <c r="E31" t="n">
         <v>7.66</v>
@@ -6925,10 +6237,8 @@
           <t>腾达建设</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>600512</t>
-        </is>
+      <c r="D32" t="n">
+        <v>600512</v>
       </c>
       <c r="E32" t="n">
         <v>2.31</v>
@@ -6963,10 +6273,8 @@
           <t>菲达环保</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>600526</t>
-        </is>
+      <c r="D33" t="n">
+        <v>600526</v>
       </c>
       <c r="E33" t="n">
         <v>4.72</v>
@@ -7001,10 +6309,8 @@
           <t>京投发展</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>600683</t>
-        </is>
+      <c r="D34" t="n">
+        <v>600683</v>
       </c>
       <c r="E34" t="n">
         <v>3.91</v>
@@ -7039,10 +6345,8 @@
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>600883</t>
-        </is>
+      <c r="D35" t="n">
+        <v>600883</v>
       </c>
       <c r="E35" t="n">
         <v>7.48</v>
@@ -7077,10 +6381,8 @@
           <t>奥康国际</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
+      <c r="D36" t="n">
+        <v>603001</v>
       </c>
       <c r="E36" t="n">
         <v>6.64</v>
@@ -7115,10 +6417,8 @@
           <t>彩蝶实业</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>603073</t>
-        </is>
+      <c r="D37" t="n">
+        <v>603073</v>
       </c>
       <c r="E37" t="n">
         <v>16.35</v>
@@ -7153,10 +6453,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="D38" t="n">
+        <v>603172</v>
       </c>
       <c r="E38" t="n">
         <v>15.75</v>
@@ -7191,10 +6489,8 @@
           <t>汇通集团</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>603176</t>
-        </is>
+      <c r="D39" t="n">
+        <v>603176</v>
       </c>
       <c r="E39" t="n">
         <v>4.78</v>
@@ -7229,10 +6525,8 @@
           <t>德创环保</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>603177</t>
-        </is>
+      <c r="D40" t="n">
+        <v>603177</v>
       </c>
       <c r="E40" t="n">
         <v>8.74</v>
@@ -7267,10 +6561,8 @@
           <t>嘉华股份</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>603182</t>
-        </is>
+      <c r="D41" t="n">
+        <v>603182</v>
       </c>
       <c r="E41" t="n">
         <v>13.23</v>
@@ -7305,10 +6597,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="D42" t="n">
+        <v>603183</v>
       </c>
       <c r="E42" t="n">
         <v>4.15</v>
@@ -7343,10 +6633,8 @@
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>603321</t>
-        </is>
+      <c r="D43" t="n">
+        <v>603321</v>
       </c>
       <c r="E43" t="n">
         <v>7.45</v>
@@ -7381,10 +6669,8 @@
           <t>天创时尚</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>603608</t>
-        </is>
+      <c r="D44" t="n">
+        <v>603608</v>
       </c>
       <c r="E44" t="n">
         <v>5.34</v>
@@ -7419,10 +6705,8 @@
           <t>建发合诚</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>603909</t>
-        </is>
+      <c r="D45" t="n">
+        <v>603909</v>
       </c>
       <c r="E45" t="n">
         <v>9.07</v>
@@ -7457,10 +6741,8 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>603926</t>
-        </is>
+      <c r="D46" t="n">
+        <v>603926</v>
       </c>
       <c r="E46" t="n">
         <v>11.33</v>
@@ -7495,10 +6777,8 @@
           <t>炬芯科技</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>688049</t>
-        </is>
+      <c r="D47" t="n">
+        <v>688049</v>
       </c>
       <c r="E47" t="n">
         <v>62.1</v>
@@ -7533,10 +6813,8 @@
           <t>申联生物</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>688098</t>
-        </is>
+      <c r="D48" t="n">
+        <v>688098</v>
       </c>
       <c r="E48" t="n">
         <v>6.09</v>
@@ -7571,10 +6849,8 @@
           <t>高铁电气</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>688285</t>
-        </is>
+      <c r="D49" t="n">
+        <v>688285</v>
       </c>
       <c r="E49" t="n">
         <v>8.130000000000001</v>
@@ -7609,10 +6885,8 @@
           <t>复洁环保</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>688335</t>
-        </is>
+      <c r="D50" t="n">
+        <v>688335</v>
       </c>
       <c r="E50" t="n">
         <v>12.57</v>
@@ -7647,10 +6921,8 @@
           <t>工大高科</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>688367</t>
-        </is>
+      <c r="D51" t="n">
+        <v>688367</v>
       </c>
       <c r="E51" t="n">
         <v>17.66</v>
@@ -7685,10 +6957,8 @@
           <t>科美诊断</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>688468</t>
-        </is>
+      <c r="D52" t="n">
+        <v>688468</v>
       </c>
       <c r="E52" t="n">
         <v>7.4</v>
@@ -7723,10 +6993,8 @@
           <t>九州一轨</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>688485</t>
-        </is>
+      <c r="D53" t="n">
+        <v>688485</v>
       </c>
       <c r="E53" t="n">
         <v>10.44</v>
@@ -7761,10 +7029,8 @@
           <t>金冠电气</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>688517</t>
-        </is>
+      <c r="D54" t="n">
+        <v>688517</v>
       </c>
       <c r="E54" t="n">
         <v>14.14</v>
@@ -7799,10 +7065,8 @@
           <t>康众医疗</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>688607</t>
-        </is>
+      <c r="D55" t="n">
+        <v>688607</v>
       </c>
       <c r="E55" t="n">
         <v>18.49</v>
@@ -7837,10 +7101,8 @@
           <t>元琛科技</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>688659</t>
-        </is>
+      <c r="D56" t="n">
+        <v>688659</v>
       </c>
       <c r="E56" t="n">
         <v>8.789999999999999</v>
@@ -7875,10 +7137,8 @@
           <t>科汇股份</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>688681</t>
-        </is>
+      <c r="D57" t="n">
+        <v>688681</v>
       </c>
       <c r="E57" t="n">
         <v>14.04</v>
@@ -7913,10 +7173,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D58" t="n">
+        <v>573</v>
       </c>
       <c r="E58" t="n">
         <v>4.21</v>
@@ -7940,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8012,10 +7270,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
         <v>4.21</v>
@@ -8031,143 +7287,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600410</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -8235,43 +7354,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8281,19 +7400,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8302,7 +7419,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -8317,7 +7434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8375,7 +7492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8383,16 +7500,14 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8400,7 +7515,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8472,24 +7623,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8497,7 +7646,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -8506,6 +7655,101 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8577,10 +7821,8 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600410</t>
-        </is>
+      <c r="D2" t="n">
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
         <v>9.73</v>
@@ -8613,10 +7855,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D3" t="n">
+        <v>573</v>
       </c>
       <c r="E3" t="n">
         <v>4.03</v>
@@ -8638,7 +7878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8710,10 +7950,8 @@
           <t>沃顿科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000920</t>
-        </is>
+      <c r="D2" t="n">
+        <v>920</v>
       </c>
       <c r="E2" t="n">
         <v>10.37</v>
@@ -8738,6 +7976,675 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广田集团</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10414,11 +10321,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10454,11 +10357,7 @@
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10494,11 +10393,7 @@
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10534,11 +10429,7 @@
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10574,11 +10465,7 @@
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10614,11 +10501,7 @@
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10654,11 +10537,7 @@
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10694,11 +10573,7 @@
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10734,11 +10609,7 @@
       <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10774,11 +10645,7 @@
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10814,11 +10681,7 @@
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10854,11 +10717,7 @@
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10894,11 +10753,7 @@
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10934,11 +10789,7 @@
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -10974,11 +10825,7 @@
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>卖出</t>
@@ -11014,11 +10861,7 @@
       <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>买入</t>
@@ -11054,11 +10897,7 @@
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
           <t>买入</t>
@@ -11094,11 +10933,7 @@
       <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
           <t>买入</t>
@@ -11134,11 +10969,7 @@
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>买入</t>
@@ -11178,7 +11009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11255,10 +11086,8 @@
           <t>紫光股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000938</t>
-        </is>
+      <c r="D2" t="n">
+        <v>938</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -11298,10 +11127,8 @@
           <t>中科金财</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002657</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2657</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -11341,10 +11168,8 @@
           <t>胜利股份</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000407</t>
-        </is>
+      <c r="D4" t="n">
+        <v>407</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -11384,10 +11209,8 @@
           <t>德龙汇能</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
+      <c r="D5" t="n">
+        <v>593</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -11427,10 +11250,8 @@
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000632</t>
-        </is>
+      <c r="D6" t="n">
+        <v>632</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -11470,10 +11291,8 @@
           <t>茂化实华</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000637</t>
-        </is>
+      <c r="D7" t="n">
+        <v>637</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -11513,10 +11332,8 @@
           <t>湖北能源</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>000883</t>
-        </is>
+      <c r="D8" t="n">
+        <v>883</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -11556,10 +11373,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -11599,10 +11414,8 @@
           <t>利仁科技</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>001259</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1259</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -11642,10 +11455,8 @@
           <t>坤泰股份</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1260</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -11685,10 +11496,8 @@
           <t>箭牌家居</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1322</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -11728,10 +11537,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1336</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -11771,10 +11578,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1366</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -11814,10 +11619,8 @@
           <t>中天服务</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>002188</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2188</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -11857,10 +11660,8 @@
           <t>合兴包装</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>002228</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2228</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -11900,10 +11701,8 @@
           <t>双箭股份</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2381</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -11943,10 +11742,8 @@
           <t>龙星科技</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002442</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2442</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -11986,10 +11783,8 @@
           <t>华斯股份</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2494</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -12029,10 +11824,8 @@
           <t>福建金森</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2679</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -12072,10 +11865,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="D21" t="n">
+        <v>2687</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -12115,10 +11906,8 @@
           <t>汇洁股份</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
+      <c r="D22" t="n">
+        <v>2763</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -12158,10 +11947,8 @@
           <t>众兴菌业</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
+      <c r="D23" t="n">
+        <v>2772</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -12201,10 +11988,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="D24" t="n">
+        <v>2790</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -12244,10 +12029,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2817</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -12287,10 +12070,8 @@
           <t>新宏泽</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>002836</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2836</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -12330,10 +12111,8 @@
           <t>豪尔赛</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>002963</t>
-        </is>
+      <c r="D27" t="n">
+        <v>2963</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -12373,10 +12152,8 @@
           <t>嘉美包装</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2969</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -12416,10 +12193,8 @@
           <t>天禾股份</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>002999</t>
-        </is>
+      <c r="D29" t="n">
+        <v>2999</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -12459,10 +12234,8 @@
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>600051</t>
-        </is>
+      <c r="D30" t="n">
+        <v>600051</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -12502,10 +12275,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="D31" t="n">
+        <v>600159</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -12545,10 +12316,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="D32" t="n">
+        <v>600235</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -12588,10 +12357,8 @@
           <t>菲达环保</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>600526</t>
-        </is>
+      <c r="D33" t="n">
+        <v>600526</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -12631,10 +12398,8 @@
           <t>栖霞建设</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>600533</t>
-        </is>
+      <c r="D34" t="n">
+        <v>600533</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -12674,10 +12439,8 @@
           <t>欧亚集团</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>600697</t>
-        </is>
+      <c r="D35" t="n">
+        <v>600697</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -12717,10 +12480,8 @@
           <t>宁波富邦</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>600768</t>
-        </is>
+      <c r="D36" t="n">
+        <v>600768</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -12760,10 +12521,8 @@
           <t>京能置业</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>600791</t>
-        </is>
+      <c r="D37" t="n">
+        <v>600791</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -12803,10 +12562,8 @@
           <t>春兰股份</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>600854</t>
-        </is>
+      <c r="D38" t="n">
+        <v>600854</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -12846,10 +12603,8 @@
           <t>广电电气</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>601616</t>
-        </is>
+      <c r="D39" t="n">
+        <v>601616</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -12889,10 +12644,8 @@
           <t>彩蝶实业</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>603073</t>
-        </is>
+      <c r="D40" t="n">
+        <v>603073</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -12932,10 +12685,8 @@
           <t>恒尚节能</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
+      <c r="D41" t="n">
+        <v>603137</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -12975,10 +12726,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="D42" t="n">
+        <v>603172</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -13018,10 +12767,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="D43" t="n">
+        <v>603183</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -13061,10 +12808,8 @@
           <t>扬州金泉</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>603307</t>
-        </is>
+      <c r="D44" t="n">
+        <v>603307</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -13104,10 +12849,8 @@
           <t>惠达卫浴</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>603385</t>
-        </is>
+      <c r="D45" t="n">
+        <v>603385</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -13147,10 +12890,8 @@
           <t>歌力思</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
+      <c r="D46" t="n">
+        <v>603808</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -13190,10 +12931,8 @@
           <t>园林股份</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>605303</t>
-        </is>
+      <c r="D47" t="n">
+        <v>605303</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -13233,10 +12972,8 @@
           <t>长江电力</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>606798</t>
-        </is>
+      <c r="D48" t="n">
+        <v>606798</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -13265,7 +13002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13342,10 +13079,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D2" t="n">
+        <v>548</v>
       </c>
       <c r="E2" t="n">
         <v>5.68</v>
@@ -13383,10 +13118,8 @@
           <t>广电电气</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>601616</t>
-        </is>
+      <c r="D3" t="n">
+        <v>601616</v>
       </c>
       <c r="E3" t="n">
         <v>3.94</v>
@@ -13424,10 +13157,8 @@
           <t>豪尔赛</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002963</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2963</v>
       </c>
       <c r="E4" t="n">
         <v>13.59</v>
@@ -13465,10 +13196,8 @@
           <t>菲达环保</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600526</t>
-        </is>
+      <c r="D5" t="n">
+        <v>600526</v>
       </c>
       <c r="E5" t="n">
         <v>4.97</v>
@@ -13506,10 +13235,8 @@
           <t>世龙实业</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002748</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2748</v>
       </c>
       <c r="E6" t="n">
         <v>10.12</v>
@@ -13547,10 +13274,8 @@
           <t>园林股份</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605303</t>
-        </is>
+      <c r="D7" t="n">
+        <v>605303</v>
       </c>
       <c r="E7" t="n">
         <v>12.79</v>
@@ -13588,10 +13313,8 @@
           <t>汇洁股份</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2763</v>
       </c>
       <c r="E8" t="n">
         <v>7.35</v>
@@ -13629,10 +13352,8 @@
           <t>丰林集团</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>601996</t>
-        </is>
+      <c r="D9" t="n">
+        <v>601996</v>
       </c>
       <c r="E9" t="n">
         <v>2.32</v>
@@ -13670,10 +13391,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2817</v>
       </c>
       <c r="E10" t="n">
         <v>8.26</v>
@@ -13711,10 +13430,8 @@
           <t>钱江生化</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
+      <c r="D11" t="n">
+        <v>600796</v>
       </c>
       <c r="E11" t="n">
         <v>6.08</v>
@@ -13752,10 +13469,8 @@
           <t>扬州金泉</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>603307</t>
-        </is>
+      <c r="D12" t="n">
+        <v>603307</v>
       </c>
       <c r="E12" t="n">
         <v>40.6</v>
@@ -13793,10 +13508,8 @@
           <t>福建金森</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
+      <c r="D13" t="n">
+        <v>2679</v>
       </c>
       <c r="E13" t="n">
         <v>10.21</v>
@@ -13834,10 +13547,8 @@
           <t>恒尚节能</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
+      <c r="D14" t="n">
+        <v>603137</v>
       </c>
       <c r="E14" t="n">
         <v>16.45</v>
@@ -13875,10 +13586,8 @@
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>600865</t>
-        </is>
+      <c r="D15" t="n">
+        <v>600865</v>
       </c>
       <c r="E15" t="n">
         <v>9.31</v>
@@ -13916,10 +13625,8 @@
           <t>天禾股份</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>002999</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2999</v>
       </c>
       <c r="E16" t="n">
         <v>7.29</v>
@@ -13957,10 +13664,8 @@
           <t>申华控股</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>600653</t>
-        </is>
+      <c r="D17" t="n">
+        <v>600653</v>
       </c>
       <c r="E17" t="n">
         <v>1.93</v>
@@ -13998,10 +13703,8 @@
           <t>龙星科技</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002442</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2442</v>
       </c>
       <c r="E18" t="n">
         <v>6.51</v>
@@ -14039,10 +13742,8 @@
           <t>栖霞建设</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>600533</t>
-        </is>
+      <c r="D19" t="n">
+        <v>600533</v>
       </c>
       <c r="E19" t="n">
         <v>2.77</v>
@@ -14080,10 +13781,8 @@
           <t>三峰环境</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
+      <c r="D20" t="n">
+        <v>601827</v>
       </c>
       <c r="E20" t="n">
         <v>8.49</v>
@@ -14110,7 +13809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14187,10 +13886,8 @@
           <t>超讯通信</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603322</t>
-        </is>
+      <c r="D2" t="n">
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
         <v>37.23</v>
@@ -14228,10 +13925,8 @@
           <t>紫光股份</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000938</t>
-        </is>
+      <c r="D3" t="n">
+        <v>938</v>
       </c>
       <c r="E3" t="n">
         <v>24.91</v>
@@ -14258,7 +13953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14330,10 +14025,8 @@
           <t>梦网科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
         <v>14.73</v>
@@ -14368,10 +14061,8 @@
           <t>中科金财</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002657</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2657</v>
       </c>
       <c r="E3" t="n">
         <v>31.44</v>
@@ -14406,10 +14097,8 @@
           <t>丰林集团</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>601996</t>
-        </is>
+      <c r="D4" t="n">
+        <v>601996</v>
       </c>
       <c r="E4" t="n">
         <v>2.3</v>
@@ -14444,10 +14133,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2790</v>
       </c>
       <c r="E5" t="n">
         <v>7.76</v>
@@ -14482,10 +14169,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="D6" t="n">
+        <v>603172</v>
       </c>
       <c r="E6" t="n">
         <v>17.55</v>
@@ -14520,10 +14205,8 @@
           <t>广电电气</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>601616</t>
-        </is>
+      <c r="D7" t="n">
+        <v>601616</v>
       </c>
       <c r="E7" t="n">
         <v>3.91</v>
@@ -14558,10 +14241,8 @@
           <t>中持股份</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>603903</t>
-        </is>
+      <c r="D8" t="n">
+        <v>603903</v>
       </c>
       <c r="E8" t="n">
         <v>8.18</v>
@@ -14596,10 +14277,8 @@
           <t>浩物股份</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
+      <c r="D9" t="n">
+        <v>757</v>
       </c>
       <c r="E9" t="n">
         <v>4.99</v>
@@ -14634,10 +14313,8 @@
           <t>歌力思</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
+      <c r="D10" t="n">
+        <v>603808</v>
       </c>
       <c r="E10" t="n">
         <v>8.550000000000001</v>
@@ -14672,10 +14349,8 @@
           <t>双枪科技</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>001211</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1211</v>
       </c>
       <c r="E11" t="n">
         <v>24.78</v>
@@ -14710,10 +14385,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D12" t="n">
+        <v>548</v>
       </c>
       <c r="E12" t="n">
         <v>5.63</v>
@@ -14748,10 +14421,8 @@
           <t>嘉美包装</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
+      <c r="D13" t="n">
+        <v>2969</v>
       </c>
       <c r="E13" t="n">
         <v>3.67</v>
@@ -14786,10 +14457,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1366</v>
       </c>
       <c r="E14" t="n">
         <v>13.77</v>
@@ -14824,10 +14493,8 @@
           <t>三柏硕</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1300</v>
       </c>
       <c r="E15" t="n">
         <v>13.18</v>
@@ -14862,10 +14529,8 @@
           <t>醋化股份</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
+      <c r="D16" t="n">
+        <v>603968</v>
       </c>
       <c r="E16" t="n">
         <v>12.84</v>
@@ -14900,10 +14565,8 @@
           <t>钱江生化</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
+      <c r="D17" t="n">
+        <v>600796</v>
       </c>
       <c r="E17" t="n">
         <v>6.06</v>
@@ -14938,10 +14601,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2817</v>
       </c>
       <c r="E18" t="n">
         <v>8.19</v>
@@ -14976,10 +14637,8 @@
           <t>新宏泽</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>002836</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2836</v>
       </c>
       <c r="E19" t="n">
         <v>9.99</v>
@@ -15014,10 +14673,8 @@
           <t>汇洁股份</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>002763</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2763</v>
       </c>
       <c r="E20" t="n">
         <v>7.36</v>
@@ -15052,10 +14709,8 @@
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>600865</t>
-        </is>
+      <c r="D21" t="n">
+        <v>600865</v>
       </c>
       <c r="E21" t="n">
         <v>9.02</v>
@@ -15071,105 +14726,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603322</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -15247,19 +14803,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -15268,7 +14822,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,34 +7,35 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -532,7 +533,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-01</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -566,7 +567,483 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
         </is>
       </c>
     </row>
@@ -644,17 +1121,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -663,7 +1140,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -736,7 +1213,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -748,10 +1225,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -760,7 +1237,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -770,6 +1247,103 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1550,7 +2124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,7 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2240,103 +2814,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -2409,22 +2886,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2433,7 +2910,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2983,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2518,10 +2995,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2530,7 +3007,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -2545,7 +3022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2598,27 +3075,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2627,43 +3104,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -2736,7 +3177,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2748,10 +3189,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2760,7 +3201,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -2777,17 +3218,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2796,7 +3237,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -2811,7 +3252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2847,27 +3288,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>盈亏比例%</t>
+          <t>新比例%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>市场</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
         </is>
       </c>
     </row>
@@ -2884,34 +3315,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>952</v>
-      </c>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.98</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>化学制药</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -2928,2058 +3349,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>600051</v>
-      </c>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>600847</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>601827</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>785</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2123</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2228</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2381</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2451</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>300837</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>300838</v>
-      </c>
-      <c r="E18" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>300929</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>301353</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>301359</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>301429</v>
-      </c>
-      <c r="E22" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>301519</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>688367</v>
-      </c>
-      <c r="E24" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>688420</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>952</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>600051</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>600847</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>601827</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>785</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2123</v>
-      </c>
-      <c r="E32" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2228</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2381</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2451</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>300837</v>
-      </c>
-      <c r="E41" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>300838</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>300929</v>
-      </c>
-      <c r="E43" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>301353</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>301359</v>
-      </c>
-      <c r="E45" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>301429</v>
-      </c>
-      <c r="E46" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>301519</v>
-      </c>
-      <c r="E47" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>688367</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>688420</v>
-      </c>
-      <c r="E49" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>专用设备</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -4989,6 +3376,139 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5085,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7198,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7287,139 +5807,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7487,41 +5874,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7531,17 +5920,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7550,7 +5939,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7565,7 +5954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7623,7 +6012,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7635,10 +6024,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7646,7 +6035,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7718,22 +6143,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7741,7 +6166,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -7750,6 +6175,101 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7878,7 +6398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7981,6 +6501,2189 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>952</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>785</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>952</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>785</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8644,7 +9347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11009,7 +11712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13002,7 +13705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13809,7 +14512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13953,7 +14656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14732,101 +15435,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,35 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +512,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -533,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -545,12 +546,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,7 +568,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -579,12 +580,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -601,7 +602,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -613,12 +614,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -635,7 +636,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -647,12 +648,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -669,7 +670,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -703,7 +704,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -720,7 +721,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -737,7 +738,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -754,7 +755,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -771,7 +772,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -788,7 +789,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -805,7 +806,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -822,7 +823,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -839,7 +840,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -873,7 +874,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -890,7 +891,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -907,7 +908,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -924,7 +925,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉华股份</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -941,7 +942,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -958,7 +959,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -975,75 +976,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -1058,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,22 +1049,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603322</v>
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>38.81</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>18.72</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1140,7 +1073,691 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:31</t>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>601616</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>603903</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>757</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>603808</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>548</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600796</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>600865</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:31</t>
         </is>
       </c>
     </row>
@@ -1218,17 +1835,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1237,7 +1854,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1927,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1322,10 +1939,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1334,7 +1951,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -1344,6 +1961,103 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2124,7 +2838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2653,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,103 +3528,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -2983,22 +3600,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3007,7 +3624,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3697,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3092,10 +3709,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3104,7 +3721,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,27 +3789,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3201,43 +3818,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -3252,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3315,7 +3896,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3332,7 +3913,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-01</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3930,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3366,7 +3947,483 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
         </is>
       </c>
     </row>
@@ -3439,7 +4496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3451,10 +4508,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3463,7 +4520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -3480,17 +4537,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3499,7 +4556,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -3509,6 +4566,139 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3605,7 +4795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5718,7 +6908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5807,139 +6997,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -6007,41 +7064,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6051,17 +7110,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6070,7 +7129,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -6085,7 +7144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6143,7 +7202,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6155,10 +7214,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6166,7 +7225,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6238,22 +7333,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6261,7 +7356,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -6270,6 +7365,101 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6398,7 +7588,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6495,7 +7814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8678,7 +9997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9347,7 +10666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11712,7 +13031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13705,7 +15024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14512,7 +15831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14654,785 +15973,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2657</v>
-      </c>
-      <c r="E3" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>601996</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2790</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>603172</v>
-      </c>
-      <c r="E6" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>601616</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>603903</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浩物股份</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>757</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>603808</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1211</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>548</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1366</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>600796</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>600865</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,36 +7,37 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +518,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -534,7 +535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -551,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -568,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -585,7 +586,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -602,7 +603,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -614,12 +615,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -636,7 +637,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -648,12 +649,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -670,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -687,7 +688,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -704,7 +705,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -721,7 +722,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -738,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -755,7 +756,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -772,7 +773,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -789,7 +790,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -806,7 +807,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -823,7 +824,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -840,7 +841,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -857,7 +858,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -874,7 +875,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -891,7 +892,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -908,7 +909,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -925,7 +926,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -942,7 +943,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -959,7 +960,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -976,7 +977,211 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -986,6 +1191,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603322</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-17.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-110000</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>938</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>169800</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1758,103 +2107,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -1932,17 +2184,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1951,7 +2203,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2276,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2036,10 +2288,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2048,7 +2300,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -2058,6 +2310,103 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2838,7 +3187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3367,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3528,103 +3877,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -3697,22 +3949,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3721,7 +3973,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -3794,7 +4046,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3806,10 +4058,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3818,7 +4070,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -3833,7 +4085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,12 +4143,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3913,7 +4165,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -3925,12 +4177,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3947,7 +4199,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -3959,12 +4211,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3981,7 +4233,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -3993,12 +4245,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -4015,7 +4267,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4027,12 +4279,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -4049,7 +4301,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4318,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -4083,7 +4335,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4352,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -4117,7 +4369,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4386,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -4151,7 +4403,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4420,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -4185,7 +4437,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4454,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -4219,7 +4471,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4488,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -4253,7 +4505,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4522,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -4287,7 +4539,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4556,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉华股份</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -4321,7 +4573,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4590,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -4355,75 +4607,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,27 +4675,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4520,43 +4704,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4777,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4641,10 +4789,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4653,7 +4801,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4670,17 +4818,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4689,7 +4837,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4699,6 +4847,139 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4795,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6908,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6997,139 +7278,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7197,41 +7345,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7241,17 +7391,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7260,7 +7410,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7333,7 +7483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7345,10 +7495,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7356,7 +7506,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7428,22 +7614,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7451,7 +7637,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -7460,6 +7646,706 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7588,7 +8474,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>高现金毛利战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>920</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13.81</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7717,104 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沃顿科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>920</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-13.81</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9997,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10666,7 +11552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13031,7 +13917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15024,7 +15910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15829,148 +16715,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>37.23</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-17.75</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-110000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>紫光股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>938</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>169800</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,37 +7,38 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +519,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -535,653 +536,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -1191,6 +546,813 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>548</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-76200</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>601616</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-42200</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2963</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31300</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600526</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80900</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-42600</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>园林股份</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>605303</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33700</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25800</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>601996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-185600</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52100</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>600796</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-47600</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>扬州金泉</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>603307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30700</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>603137</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24700</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>600865</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-31700</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申华控股</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600653</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9600</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>栖霞建设</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>600533</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-155600</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-43000</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2107,103 +2269,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -2281,17 +2346,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2300,7 +2365,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2438,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2385,10 +2450,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2397,7 +2462,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -2407,6 +2472,103 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3187,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3716,7 +3878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3877,103 +4039,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4111,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4070,7 +4135,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4148,7 +4213,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -4165,7 +4230,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4247,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -4199,7 +4264,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4281,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -4233,7 +4298,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4310,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -4267,7 +4332,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4344,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -4301,7 +4366,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4383,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -4335,7 +4400,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4417,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -4369,7 +4434,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4451,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -4403,7 +4468,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4485,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -4437,7 +4502,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4519,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -4471,7 +4536,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4553,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -4505,7 +4570,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4587,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -4539,7 +4604,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4621,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -4573,7 +4638,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4655,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -4607,7 +4672,211 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4949,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4692,10 +4961,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4704,7 +4973,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4772,27 +5041,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4801,43 +5070,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -4910,7 +5143,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4922,10 +5155,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4934,7 +5167,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4951,17 +5184,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4970,7 +5203,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -4980,6 +5213,139 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5076,7 +5442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7189,7 +7555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7278,139 +7644,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7478,41 +7711,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7522,17 +7757,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7541,7 +7776,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7614,7 +7849,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7626,10 +7861,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7637,7 +7872,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7709,22 +7980,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7732,7 +8003,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -7741,6 +8012,864 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>600410</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1751938260000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>573</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1751938260000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>高现金毛利战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>920</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13.81</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8345,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8404,7 +9533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8414,59 +9543,59 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.95</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1751938260000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-39.45</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1751938260000</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8474,233 +9603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沃顿科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>920</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-13.81</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10883,7 +11786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11552,7 +12455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13917,7 +14820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15908,811 +16811,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-76200</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>601616</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-42200</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2963</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31300</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>600526</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80900</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-42600</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>园林股份</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>605303</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33700</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25800</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>601996</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-185600</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>52100</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>600796</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-47600</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>扬州金泉</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>603307</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4800</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G13" t="n">
-        <v>30700</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>603137</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24700</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>600865</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-31700</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>59100</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申华控股</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>600653</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-127500</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-9600</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>栖霞建设</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>600533</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-155600</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>601827</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-43000</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,38 +7,39 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +520,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -536,7 +537,177 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -546,6 +717,1999 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>938</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-76200</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-42200</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>胜利股份</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>407</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31300</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>593</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80900</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>632</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-42600</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>637</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33700</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>883</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25800</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-185600</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52100</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-47600</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1322</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30700</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1366</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24700</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2188</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-31700</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9600</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2494</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-155600</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-43000</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2687</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-42999</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-42998</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>众兴菌业</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2772</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-42997</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-42996</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-42995</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-42994</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2963</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-42993</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-42992</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-42991</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-42990</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>600159</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-42989</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>600235</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-42988</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>600526</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-42987</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>栖霞建设</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>600533</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-42986</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>欧亚集团</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>600697</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-42985</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>600768</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-42984</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>600791</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-42983</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>春兰股份</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>600854</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-42982</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>601616</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-42981</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-08-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>603073</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-42980</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-08-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>603137</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-42979</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-08-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>603172</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-42978</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-08-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>603183</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-42977</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-08-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>扬州金泉</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>603307</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-42976</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-08-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>603385</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-42975</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-08-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>603808</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-42974</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-08-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>园林股份</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>605303</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-42973</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-08-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>606798</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-42972</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-08-41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1496,7 +3660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,103 +4433,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -2443,17 +4510,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2462,7 +4529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -2535,7 +4602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2547,10 +4614,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2559,7 +4626,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -2569,6 +4636,103 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +5513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3878,7 +6042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4047,7 +6211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4106,7 +6270,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4116,104 +6280,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -4230,653 +6297,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -4949,22 +6370,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4973,7 +6394,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5046,7 +6467,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5058,10 +6479,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5070,7 +6491,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -5085,7 +6506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,27 +6559,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5167,43 +6588,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -5276,7 +6661,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5288,10 +6673,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5300,7 +6685,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -5317,17 +6702,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5336,7 +6721,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -5346,6 +6731,139 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5442,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7555,7 +9073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7644,139 +9162,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7844,41 +9229,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7888,17 +9275,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7907,7 +9294,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -7922,7 +9309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7980,7 +9367,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7992,10 +9379,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8003,7 +9390,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8017,7 +9440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8080,7 +9503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -8097,7 +9520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8114,7 +9537,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -8131,7 +9554,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8148,7 +9571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -8165,7 +9588,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8177,12 +9600,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -8199,7 +9622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8211,12 +9634,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -8233,7 +9656,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8250,7 +9673,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -8267,7 +9690,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8284,7 +9707,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -8301,7 +9724,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8318,7 +9741,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -8335,7 +9758,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8352,7 +9775,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -8369,7 +9792,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8386,7 +9809,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -8403,7 +9826,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8420,7 +9843,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -8437,7 +9860,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8454,7 +9877,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -8471,7 +9894,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8488,7 +9911,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -8505,7 +9928,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8522,7 +9945,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -8539,7 +9962,211 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -8612,22 +10239,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8635,7 +10262,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -8644,6 +10271,101 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8772,7 +10494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8875,6 +10597,543 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9474,7 +11733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9603,7 +11862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11786,7 +14045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12455,7 +14714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14818,1997 +17077,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>市场.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>紫光股份</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>938</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-76200</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2657</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-42200</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>胜利股份</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>407</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31300</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>593</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80900</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-42600</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>637</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33700</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>883</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25800</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1231</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-185600</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>52100</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1260</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-47600</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1322</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4800</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1336</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="G13" t="n">
-        <v>30700</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1366</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24700</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-31700</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2228</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G16" t="n">
-        <v>59100</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2381</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-127500</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-9600</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2494</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-155600</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-43000</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-42999</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-08-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-42998</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>众兴菌业</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2772</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-42997</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-08-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2790</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-42996</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-08-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-42995</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-08-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-42994</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-08-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2963</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-42993</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-42992</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-08-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-42991</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-08-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>600051</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-42990</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-08-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>600159</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-42989</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-08-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>600235</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-42988</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>600526</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-42987</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-08-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>栖霞建设</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>600533</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-42986</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>欧亚集团</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>600697</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-42985</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>600768</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-42984</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>600791</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-42983</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>春兰股份</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>600854</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-42982</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>601616</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-42981</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-08-32</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>603073</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-42980</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-08-33</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>603137</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-42979</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-08-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>603172</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-42978</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-08-35</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>603183</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-42977</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-08-36</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>扬州金泉</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>603307</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-42976</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-08-37</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>603385</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-42975</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-08-38</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>603808</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-42974</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-08-39</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>园林股份</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>605303</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-42973</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-08-40</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>长江电力</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>606798</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-42972</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-08-41</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,39 +7,40 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +521,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>合富中国</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -537,177 +538,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -717,6 +548,2371 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0785.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:31:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2123.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:31:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0548.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0593.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0663.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1259.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1260.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1299.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1322.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1336.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1366.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2188.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2200.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2228.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2442.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广田集团</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2482.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2494.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2679.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2687.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2748.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2763.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2790.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2817.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2999.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3008.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>600159.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>600235.0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>600791.0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>601616.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>603073.0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>603183.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>603385.0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>603700.0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>603789.0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>603808.0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:43:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建研设计</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>百川能源</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>友车科技</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>爱普股份</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2709,7 +4905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3516,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3660,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4433,103 +6629,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -4607,17 +6706,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4626,7 +6725,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -4699,7 +6798,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4711,10 +6810,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4723,7 +6822,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -4733,6 +6832,103 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5513,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6042,7 +8238,272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6203,198 +8664,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -6467,22 +8736,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6491,7 +8760,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -6564,7 +8833,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6576,10 +8845,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6588,7 +8857,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -6603,7 +8872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6656,27 +8925,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6685,43 +8954,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -6794,7 +9027,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6806,10 +9039,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6818,7 +9051,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -6835,17 +9068,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6854,7 +9087,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -6864,6 +9097,139 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6960,7 +9326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9073,7 +11439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9162,139 +11528,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -9362,41 +11595,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9406,17 +11641,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -9425,7 +11660,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -9435,747 +11670,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10234,12 +11728,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10251,10 +11840,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10262,7 +11851,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10334,22 +11959,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10357,7 +11982,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -10366,6 +11991,101 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10494,7 +12214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10597,6 +12317,747 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11128,7 +13589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11733,7 +14194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11862,7 +14323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14045,7 +16506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14712,2369 +17173,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0785.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H2" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-26 09:31:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2123.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-26 09:31:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0548.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0593.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0663.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1259.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>小家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1260.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1299.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1322.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1336.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1366.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-3.01</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2188.0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2228.0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2442.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广田集团</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2482.0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2494.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2679.0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2687.0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2748.0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2763.0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2790.0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2817.0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2999.0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3008.0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>600159.0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>600235.0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>600791.0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>601616.0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>603073.0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>603183.0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>603385.0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>宁水集团</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>603700.0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>603789.0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>603808.0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-08-25 16:43:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>建研设计</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>百川能源</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>友车科技</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>爱普股份</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,40 +7,41 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +522,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -538,7 +539,551 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>福建水泥</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>优彩资源</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -548,6 +1093,675 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广田集团</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>000nan</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2912,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4905,7 +6119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5712,7 +6926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5856,7 +7070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6629,103 +7843,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -6803,17 +7920,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6822,7 +7939,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -6895,7 +8012,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6907,10 +8024,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6919,7 +8036,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -6929,6 +8046,103 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7709,7 +8923,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8238,272 +9547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8664,103 +9708,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -8833,22 +9780,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8857,7 +9804,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -8930,7 +9877,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8942,10 +9889,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8954,7 +9901,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -8969,7 +9916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9022,27 +9969,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9051,43 +9998,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -9160,7 +10071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9172,10 +10083,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9184,7 +10095,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -9201,17 +10112,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -9220,7 +10131,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -9230,6 +10141,139 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9326,7 +10370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11439,7 +12483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11536,13 +12580,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11595,7 +12639,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -11605,17 +12649,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.26</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -11624,14 +12666,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:31</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -11641,17 +12683,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -11660,102 +12700,143 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -11823,41 +12904,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -11867,17 +12950,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -11886,7 +12969,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -11901,7 +12984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11959,7 +13042,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11971,10 +13054,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -11982,7 +13065,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -12054,22 +13173,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12077,7 +13196,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -12086,6 +13205,101 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12214,7 +13428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12317,6 +13531,101 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13052,7 +14361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13589,7 +14898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14194,7 +15503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14323,7 +15632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16504,673 +17813,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广田集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>000nan</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,41 +7,42 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,7 +523,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -539,7 +540,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -573,7 +574,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -590,7 +591,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -607,7 +608,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -624,7 +625,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -641,7 +642,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -658,7 +659,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -675,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -692,7 +693,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -709,7 +710,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -743,7 +744,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -760,7 +761,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>菲林格尔</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -777,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -794,7 +795,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -811,7 +812,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -828,7 +829,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -845,7 +846,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -862,7 +863,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -879,7 +880,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -896,7 +897,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -913,7 +914,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -930,7 +931,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -947,7 +948,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -964,7 +965,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -981,7 +982,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -998,7 +999,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1033,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -1093,6 +1094,2189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>952</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>785</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>952</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>600051</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>600847</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>601827</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>603968</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>785</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:11:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>300837</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>300838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>300929</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>301353</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东南电子</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>301359</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>其他电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>301429</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>舜禹股份</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>301519</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>688367</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>688420</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>科创板</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:12:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1761,7 +3945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4126,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6119,7 +8303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6926,7 +9110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7070,7 +9254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7843,103 +10027,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -8017,17 +10104,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8036,7 +10123,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -8109,7 +10196,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8121,10 +10208,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8133,7 +10220,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -8143,6 +10230,368 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8923,102 +11372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙江万丰股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9547,7 +11901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9708,103 +12062,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -9877,22 +12134,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9901,7 +12158,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -9974,7 +12231,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9986,10 +12243,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9998,7 +12255,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -10013,7 +12270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10066,27 +12323,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10095,43 +12352,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -10204,7 +12425,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10216,10 +12437,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10228,7 +12449,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -10245,17 +12466,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -10264,7 +12485,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -10274,6 +12495,139 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10370,7 +12724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12483,7 +14837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12542,7 +14896,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -12552,104 +14906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>573</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>合富中国</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -12666,177 +14923,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -12851,7 +14938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12904,7 +14991,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -12914,17 +15001,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600410</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>9.75</v>
+        <v>4.21</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12933,43 +15020,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
+          <t>2025-07-15 09:31</t>
         </is>
       </c>
     </row>
@@ -13037,41 +15088,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -13081,17 +15134,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -13100,7 +15153,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -13115,7 +15168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13173,7 +15226,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13185,10 +15238,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -13196,7 +15249,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -13268,22 +15357,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -13291,7 +15380,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -13300,6 +15389,101 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13428,7 +15612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13531,6 +15715,271 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13620,7 +16069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14361,7 +16810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14898,7 +17347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15503,7 +17952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15630,2187 +18079,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>952</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>600051</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>600847</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>601827</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>785</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2123</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2228</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2381</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2451</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>300837</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>300838</v>
-      </c>
-      <c r="E18" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>300929</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>301353</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>301359</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>301429</v>
-      </c>
-      <c r="E22" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>301519</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>688367</v>
-      </c>
-      <c r="E24" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>688420</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>952</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-5.58</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>600051</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>600847</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>601827</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>603968</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>785</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2123</v>
-      </c>
-      <c r="E32" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:11:00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2228</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2381</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2442</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>橡胶制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2451</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>种植业与林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>化学原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2969</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>300837</v>
-      </c>
-      <c r="E41" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>300838</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>300929</v>
-      </c>
-      <c r="E43" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>301353</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东南电子</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>301359</v>
-      </c>
-      <c r="E45" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>其他电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>301429</v>
-      </c>
-      <c r="E46" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>舜禹股份</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>301519</v>
-      </c>
-      <c r="E47" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>688367</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>688420</v>
-      </c>
-      <c r="E49" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>科创板</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-08-26 16:12:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,42 +7,43 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="37" state="visible" r:id="rId37"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +524,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -540,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -574,7 +575,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -608,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -625,7 +626,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -642,7 +643,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -659,7 +660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -676,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -693,7 +694,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -710,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -727,7 +728,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -744,7 +745,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -761,7 +762,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -778,7 +779,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -812,7 +813,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -824,12 +825,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>双箭股份</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -846,7 +847,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -863,7 +864,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -880,7 +881,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -897,7 +898,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -914,7 +915,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -931,7 +932,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -948,7 +949,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -965,7 +966,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>庄园牧场</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -982,7 +983,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -999,7 +1000,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1034,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1068,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1084,7 +1085,109 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>亚通精工</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -1094,6 +1197,135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3276,7 +3508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3945,7 +4177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6310,7 +6542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8303,7 +8535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9110,7 +9342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9254,7 +9486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10027,103 +10259,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -10201,17 +10336,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10220,7 +10355,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10428,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10305,10 +10440,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10317,7 +10452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10390,12 +10525,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -10412,7 +10547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10424,12 +10559,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -10446,7 +10581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10458,12 +10593,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -10480,7 +10615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10492,12 +10627,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -10514,7 +10649,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10526,12 +10661,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -10548,7 +10683,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10560,12 +10695,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -10582,7 +10717,381 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -10592,6 +11101,103 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11372,7 +11978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11901,7 +12507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12062,103 +12668,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -12231,22 +12740,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12255,7 +12764,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12837,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12340,10 +12849,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12352,7 +12861,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12420,27 +12929,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12449,43 +12958,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -12558,7 +13031,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12570,10 +13043,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12582,7 +13055,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -12599,17 +13072,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -12618,7 +13091,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -12628,6 +13101,139 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12724,7 +13330,272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14837,7 +15708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14896,101 +15767,6 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙江万丰股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
           <t>低价小市值股战法</t>
         </is>
       </c>
@@ -15021,139 +15797,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -15221,41 +15864,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -15265,17 +15910,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -15284,7 +15929,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -15299,7 +15944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15357,7 +16002,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15369,10 +16014,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -15380,7 +16025,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -15452,22 +16133,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -15475,7 +16156,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -15484,6 +16165,101 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15612,7 +16388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15715,6 +16491,101 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15974,7 +16845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16069,7 +16940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16810,7 +17681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17347,7 +18218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17950,133 +18821,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Strategy_portfolio_today.xlsx
@@ -7,43 +7,44 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +525,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -541,7 +542,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -558,7 +559,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -575,619 +576,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>福建水泥</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>一彬科技</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德美化工</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金富科技</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上海雅仕</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>庄园牧场</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>弘宇股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>亚通精工</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -1197,6 +586,611 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1325,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3508,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4177,7 +4171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6542,7 +6536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8535,7 +8529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9342,7 +9336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9486,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10259,103 +10253,6 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2025-08-11 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -10433,17 +10330,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2123</v>
+        <v>603322</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -10452,7 +10349,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -10467,7 +10364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10530,7 +10427,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -10547,7 +10444,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10564,7 +10461,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -10581,7 +10478,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -10615,7 +10512,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10529,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -10649,7 +10546,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10563,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -10683,7 +10580,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10700,7 +10597,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -10717,7 +10614,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10734,7 +10631,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -10751,7 +10648,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10665,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -10785,7 +10682,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10802,7 +10699,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -10819,7 +10716,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10831,12 +10728,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>双箭股份</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -10853,7 +10750,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10870,7 +10767,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -10887,7 +10784,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10904,7 +10801,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -10921,7 +10818,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10835,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -10955,7 +10852,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10869,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>庄园牧场</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -10989,7 +10886,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -11006,7 +10903,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -11023,7 +10920,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -11040,7 +10937,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -11057,7 +10954,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -11074,7 +10971,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -11091,7 +10988,109 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>亚通精工</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11163,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11176,10 +11175,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -11188,7 +11187,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -11198,6 +11197,103 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11978,7 +12074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12507,7 +12603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12668,103 +12764,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -12837,22 +12836,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12861,7 +12860,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -12934,7 +12933,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12946,10 +12945,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -12958,7 +12957,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13026,27 +13025,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -13055,43 +13054,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13127,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13176,10 +13139,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -13188,7 +13151,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -13205,17 +13168,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -13224,7 +13187,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -13234,6 +13197,778 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13330,272 +14065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上海雅仕</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>劲旅环境</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15708,7 +16178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15797,139 +16267,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -15997,41 +16334,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -16041,17 +16380,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -16060,7 +16399,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -16075,7 +16414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16133,7 +16472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16145,10 +16484,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -16156,7 +16495,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -16228,22 +16603,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -16251,7 +16626,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -16260,6 +16635,101 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16388,7 +16858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16491,6 +16961,271 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16580,7 +17315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16845,7 +17580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16940,7 +17675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17681,7 +18416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18216,609 +18951,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>